--- a/data/dividends_info_20260221.xlsx
+++ b/data/dividends_info_20260221.xlsx
@@ -1586,7 +1586,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -1732,14 +1732,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>Redelfi S.p.A.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1749,14 +1749,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Redelfi S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1790,7 +1790,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1807,7 +1807,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1824,7 +1824,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1841,7 +1841,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>Intesa Sanpaolo S.p.A.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1851,14 +1851,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>Bellini Nautica S.p.A.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1868,14 +1868,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1885,14 +1885,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
+          <t>Dedem S.p.A.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1902,14 +1902,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>JUVENTUS F.C. S.p.A.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1919,14 +1919,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1943,7 +1943,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>HELYX INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1953,14 +1953,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bellini Nautica S.p.A.</t>
+          <t>IGD SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1970,14 +1970,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1987,14 +1987,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2004,14 +2004,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2028,7 +2028,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2038,14 +2038,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2055,14 +2055,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2072,14 +2072,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2242,14 +2242,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2266,7 +2266,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2317,7 +2317,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2344,14 +2344,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2531,14 +2531,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2548,14 +2548,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2582,14 +2582,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2599,14 +2599,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2657,7 +2657,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2674,7 +2674,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2701,14 +2701,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2861,7 +2861,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2946,7 +2946,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3058,14 +3058,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3075,14 +3075,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3126,14 +3126,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3167,7 +3167,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3177,14 +3177,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3201,7 +3201,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3235,7 +3235,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3262,14 +3262,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3286,7 +3286,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3296,14 +3296,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3320,7 +3320,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3330,14 +3330,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3347,14 +3347,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3371,7 +3371,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3388,7 +3388,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3405,7 +3405,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3422,7 +3422,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3439,7 +3439,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3456,7 +3456,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3473,7 +3473,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3483,14 +3483,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3507,7 +3507,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3517,14 +3517,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3541,7 +3541,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3551,14 +3551,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3568,14 +3568,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3592,7 +3592,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3609,7 +3609,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3626,7 +3626,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3636,14 +3636,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3660,7 +3660,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3711,7 +3711,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3728,7 +3728,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3745,7 +3745,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3755,14 +3755,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3772,14 +3772,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3806,14 +3806,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3823,14 +3823,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3847,7 +3847,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3857,14 +3857,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3881,7 +3881,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3891,14 +3891,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3908,14 +3908,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3932,7 +3932,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3949,7 +3949,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3966,7 +3966,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3976,14 +3976,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3993,14 +3993,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4017,7 +4017,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4034,7 +4034,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4051,7 +4051,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4085,7 +4085,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4095,14 +4095,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>Neodecortech S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4119,7 +4119,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4136,7 +4136,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -4163,14 +4163,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4187,7 +4187,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4214,14 +4214,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4238,7 +4238,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4255,7 +4255,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4265,14 +4265,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4282,14 +4282,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4306,7 +4306,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4316,14 +4316,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4357,7 +4357,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4374,7 +4374,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4408,7 +4408,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4425,7 +4425,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4435,14 +4435,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4452,14 +4452,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Pharmanutra S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4469,14 +4469,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4486,14 +4486,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>I.M.D. International Medical Devices S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A2A S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4527,7 +4527,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4554,14 +4554,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Pharmanutra S.p.A.</t>
+          <t>A2A S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4578,7 +4578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4595,7 +4595,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>RISANAMENTO S.p.A.</t>
+          <t>Technoprobe S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4629,7 +4629,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4639,14 +4639,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4656,14 +4656,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4680,7 +4680,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4697,7 +4697,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Technoprobe S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4714,7 +4714,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4731,7 +4731,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>B&amp;C SPEAKERS S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4748,7 +4748,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4758,14 +4758,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4782,7 +4782,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Ecomembrane S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4792,14 +4792,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4816,7 +4816,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>FNM S.p.A.</t>
+          <t>FRENDY ENERGY S.p.A.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4833,7 +4833,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>FRENDY ENERGY S.p.A.</t>
+          <t>FNM S.p.A.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4850,7 +4850,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>DATALOGIC S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4867,7 +4867,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4877,14 +4877,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AEDES S.p.A.</t>
+          <t>B&amp;C SPEAKERS S.p.A.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4901,7 +4901,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>DATALOGIC S.p.A.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4918,7 +4918,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4935,7 +4935,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4952,7 +4952,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>Ecomembrane S.p.A.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4969,7 +4969,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>AEDES S.p.A.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4979,14 +4979,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5003,7 +5003,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>gAIn360 S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5020,7 +5020,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Telesia S.p.A.</t>
+          <t>Gambero Rosso S.p.A.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5037,7 +5037,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>DiaSorin S.p.A</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5047,14 +5047,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>NEXT RE SIIQ S.p.A.</t>
+          <t>DHH S.p.A.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5071,7 +5071,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
+          <t>gAIn360 S.p.A.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5088,7 +5088,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Gambero Rosso S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5098,14 +5098,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>DiaSorin S.p.A</t>
+          <t>OPS Italia S.p.A.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5122,7 +5122,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>DHH S.p.A.</t>
+          <t>NEXT RE SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5139,7 +5139,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>OPS Italia S.p.A.</t>
+          <t>Telesia S.p.A.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5156,7 +5156,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>F.I.L.A. S.p.A.</t>
+          <t>Nusco S.p.A.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5173,7 +5173,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>CLASS EDITORI S.p.A.</t>
+          <t>OMER S.p.A.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5190,7 +5190,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ENAV S.p.A.</t>
+          <t>POWERSOFT S.p.A.</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5207,7 +5207,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>EXPERT.AI S.p.A.</t>
+          <t>Predict S.p.A.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5224,7 +5224,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>EuroGroup Laminations S.p.A.</t>
+          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5241,7 +5241,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>FOPE S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5258,7 +5258,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Antares Vision S.p.A.</t>
+          <t>Ubaldi Costruzioni S.p.A.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5275,7 +5275,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
+          <t>ZEST S.p.A.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5292,7 +5292,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
@@ -5326,7 +5326,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Antares Vision S.p.A.</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>IMMSI S.p.A.</t>
+          <t>CLASS EDITORI S.p.A.</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5377,7 +5377,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Nusco S.p.A.</t>
+          <t>ENAV S.p.A.</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5394,7 +5394,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Friends S.p.A.</t>
+          <t>EXPERT.AI S.p.A.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5411,7 +5411,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>OMER S.p.A.</t>
+          <t>EuroGroup Laminations S.p.A.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5428,7 +5428,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Predict S.p.A.</t>
+          <t>F.I.L.A. S.p.A.</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5445,7 +5445,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>RAI WAY S.p.A.</t>
+          <t>FOPE S.p.A.</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5462,7 +5462,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
+          <t>Friends S.p.A.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5479,7 +5479,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SECO S.p.A.</t>
+          <t>HELYX INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Ubaldi Costruzioni S.p.A.</t>
+          <t>IMMSI S.p.A.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5513,7 +5513,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ZEST S.p.A.</t>
+          <t>IREN S.p.A.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5530,7 +5530,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>POWERSOFT S.p.A.</t>
+          <t>SECO S.p.A.</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5547,7 +5547,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>IREN S.p.A.</t>
+          <t>RAI WAY S.p.A.</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5590,491 +5590,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Annual General Meeting</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Altea Green Power S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Altea Green Power S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Antares Vision S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Banca Profilo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CLASS EDITORI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ENAV S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>EXPERT.AI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>EuroGroup Laminations S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>F.I.L.A. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FOPE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Friends S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IMMSI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>IREN S.p.A.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Nusco S.p.A.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>OMER S.p.A.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>POWERSOFT S.p.A.</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Pozzi Milano S.p.A.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Predict S.p.A.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>RAI WAY S.p.A.</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>RT&amp;L S.P.A.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Redelfi S.p.A.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SECO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ubaldi Costruzioni S.p.A.</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ZEST S.p.A.</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-03-23</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>